--- a/Odds/NFL/nfl odds 2020-21.xlsx
+++ b/Odds/NFL/nfl odds 2020-21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nate\Documents\My Web Sites\Sportsbook Reviews Online\scoresoddsarchives\nfl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B07F3E7-0606-41B0-815F-86454E862589}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F1D4ED5-4A2E-4F3D-9C05-31D008F56F09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{447E5019-5998-4E25-ABCE-815703D6E8BD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -8077,47 +8077,1167 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="2">
+        <v>1022</v>
+      </c>
+      <c r="B184" s="2">
+        <v>303</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E184" s="2">
+        <v>7</v>
+      </c>
+      <c r="F184" s="2">
+        <v>0</v>
+      </c>
+      <c r="G184" s="2">
+        <v>7</v>
+      </c>
+      <c r="H184" s="2">
+        <v>7</v>
+      </c>
+      <c r="I184" s="2">
+        <v>21</v>
+      </c>
+      <c r="J184" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="K184" s="2">
+        <v>44.5</v>
+      </c>
+      <c r="L184" s="2">
+        <v>200</v>
+      </c>
+      <c r="M184" s="2">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="2">
+        <v>1022</v>
+      </c>
+      <c r="B185" s="2">
+        <v>304</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E185" s="2">
+        <v>7</v>
+      </c>
+      <c r="F185" s="2">
+        <v>3</v>
+      </c>
+      <c r="G185" s="2">
+        <v>0</v>
+      </c>
+      <c r="H185" s="2">
+        <v>12</v>
+      </c>
+      <c r="I185" s="2">
+        <v>22</v>
+      </c>
+      <c r="J185" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="K185" s="2">
+        <v>5</v>
+      </c>
+      <c r="L185" s="2">
+        <v>-240</v>
+      </c>
+      <c r="M185" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B186" s="2">
+        <v>451</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E186" s="2">
+        <v>3</v>
+      </c>
+      <c r="F186" s="2">
+        <v>7</v>
+      </c>
+      <c r="G186" s="2">
+        <v>7</v>
+      </c>
+      <c r="H186" s="2">
+        <v>20</v>
+      </c>
+      <c r="I186" s="2">
+        <v>37</v>
+      </c>
+      <c r="J186" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="K186" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="L186" s="2">
+        <v>-215</v>
+      </c>
+      <c r="M186" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B187" s="2">
+        <v>452</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E187" s="2">
+        <v>7</v>
+      </c>
+      <c r="F187" s="2">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2">
+        <v>3</v>
+      </c>
+      <c r="H187" s="2">
+        <v>14</v>
+      </c>
+      <c r="I187" s="2">
+        <v>34</v>
+      </c>
+      <c r="J187" s="2">
+        <v>51.5</v>
+      </c>
+      <c r="K187" s="2">
+        <v>49.5</v>
+      </c>
+      <c r="L187" s="2">
+        <v>185</v>
+      </c>
+      <c r="M187" s="2">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B188" s="2">
+        <v>453</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E188" s="2">
+        <v>3</v>
+      </c>
+      <c r="F188" s="2">
+        <v>0</v>
+      </c>
+      <c r="G188" s="2">
+        <v>0</v>
+      </c>
+      <c r="H188" s="2">
+        <v>0</v>
+      </c>
+      <c r="I188" s="2">
+        <v>3</v>
+      </c>
+      <c r="J188" s="2">
+        <v>48</v>
+      </c>
+      <c r="K188" s="2">
+        <v>44.5</v>
+      </c>
+      <c r="L188" s="2">
+        <v>-105</v>
+      </c>
+      <c r="M188" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B189" s="2">
+        <v>454</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E189" s="2">
+        <v>9</v>
+      </c>
+      <c r="F189" s="2">
+        <v>13</v>
+      </c>
+      <c r="G189" s="2">
+        <v>0</v>
+      </c>
+      <c r="H189" s="2">
+        <v>3</v>
+      </c>
+      <c r="I189" s="2">
+        <v>25</v>
+      </c>
+      <c r="J189" s="2">
+        <v>3</v>
+      </c>
+      <c r="K189" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="L189" s="2">
+        <v>-115</v>
+      </c>
+      <c r="M189" s="2">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B190" s="2">
+        <v>457</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E190" s="2">
+        <v>7</v>
+      </c>
+      <c r="F190" s="2">
+        <v>3</v>
+      </c>
+      <c r="G190" s="2">
+        <v>3</v>
+      </c>
+      <c r="H190" s="2">
+        <v>10</v>
+      </c>
+      <c r="I190" s="2">
+        <v>23</v>
+      </c>
+      <c r="J190" s="2">
+        <v>56.5</v>
+      </c>
+      <c r="K190" s="2">
+        <v>55</v>
+      </c>
+      <c r="L190" s="2">
+        <v>100</v>
+      </c>
+      <c r="M190" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B191" s="2">
+        <v>458</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E191" s="2">
+        <v>0</v>
+      </c>
+      <c r="F191" s="2">
+        <v>14</v>
+      </c>
+      <c r="G191" s="2">
+        <v>0</v>
+      </c>
+      <c r="H191" s="2">
+        <v>8</v>
+      </c>
+      <c r="I191" s="2">
+        <v>22</v>
+      </c>
+      <c r="J191" s="2">
+        <v>2</v>
+      </c>
+      <c r="K191" s="2">
+        <v>1</v>
+      </c>
+      <c r="L191" s="2">
+        <v>-120</v>
+      </c>
+      <c r="M191" s="2">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B192" s="2">
+        <v>461</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E192" s="2">
+        <v>3</v>
+      </c>
+      <c r="F192" s="2">
+        <v>14</v>
+      </c>
+      <c r="G192" s="2">
+        <v>7</v>
+      </c>
+      <c r="H192" s="2">
+        <v>0</v>
+      </c>
+      <c r="I192" s="2">
+        <v>24</v>
+      </c>
+      <c r="J192" s="2">
+        <v>51</v>
+      </c>
+      <c r="K192" s="2">
+        <v>50.5</v>
+      </c>
+      <c r="L192" s="2">
+        <v>275</v>
+      </c>
+      <c r="M192" s="2">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B193" s="2">
+        <v>462</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E193" s="2">
+        <v>7</v>
+      </c>
+      <c r="F193" s="2">
+        <v>14</v>
+      </c>
+      <c r="G193" s="2">
+        <v>3</v>
+      </c>
+      <c r="H193" s="2">
+        <v>3</v>
+      </c>
+      <c r="I193" s="2">
+        <v>27</v>
+      </c>
+      <c r="J193" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="K193" s="2">
+        <v>7</v>
+      </c>
+      <c r="L193" s="2">
+        <v>-335</v>
+      </c>
+      <c r="M193" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B194" s="2">
+        <v>463</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E194" s="2">
+        <v>0</v>
+      </c>
+      <c r="F194" s="2">
+        <v>6</v>
+      </c>
+      <c r="G194" s="2">
+        <v>6</v>
+      </c>
+      <c r="H194" s="2">
+        <v>6</v>
+      </c>
+      <c r="I194" s="2">
+        <v>18</v>
+      </c>
+      <c r="J194" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="K194" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="L194" s="2">
+        <v>-450</v>
+      </c>
+      <c r="M194" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B195" s="2">
+        <v>464</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E195" s="2">
+        <v>3</v>
+      </c>
+      <c r="F195" s="2">
+        <v>7</v>
+      </c>
+      <c r="G195" s="2">
+        <v>0</v>
+      </c>
+      <c r="H195" s="2">
+        <v>0</v>
+      </c>
+      <c r="I195" s="2">
+        <v>10</v>
+      </c>
+      <c r="J195" s="2">
+        <v>47</v>
+      </c>
+      <c r="K195" s="2">
+        <v>46.5</v>
+      </c>
+      <c r="L195" s="2">
+        <v>375</v>
+      </c>
+      <c r="M195" s="2">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B196" s="2">
+        <v>465</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E196" s="2">
+        <v>7</v>
+      </c>
+      <c r="F196" s="2">
+        <v>14</v>
+      </c>
+      <c r="G196" s="2">
+        <v>7</v>
+      </c>
+      <c r="H196" s="2">
+        <v>7</v>
+      </c>
+      <c r="I196" s="2">
+        <v>35</v>
+      </c>
+      <c r="J196" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="K196" s="2">
+        <v>3</v>
+      </c>
+      <c r="L196" s="2">
+        <v>-150</v>
+      </c>
+      <c r="M196" s="2">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A197" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B197" s="2">
+        <v>466</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E197" s="2">
+        <v>0</v>
+      </c>
+      <c r="F197" s="2">
+        <v>0</v>
+      </c>
+      <c r="G197" s="2">
+        <v>7</v>
+      </c>
+      <c r="H197" s="2">
+        <v>13</v>
+      </c>
+      <c r="I197" s="2">
+        <v>20</v>
+      </c>
+      <c r="J197" s="2">
+        <v>55.5</v>
+      </c>
+      <c r="K197" s="2">
+        <v>55.5</v>
+      </c>
+      <c r="L197" s="2">
+        <v>130</v>
+      </c>
+      <c r="M197" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A198" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B198" s="2">
+        <v>467</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E198" s="2">
+        <v>10</v>
+      </c>
+      <c r="F198" s="2">
+        <v>17</v>
+      </c>
+      <c r="G198" s="2">
+        <v>0</v>
+      </c>
+      <c r="H198" s="2">
+        <v>7</v>
+      </c>
+      <c r="I198" s="2">
+        <v>34</v>
+      </c>
+      <c r="J198" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="K198" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="L198" s="2">
+        <v>-180</v>
+      </c>
+      <c r="M198" s="2">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A199" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B199" s="2">
+        <v>468</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E199" s="2">
+        <v>7</v>
+      </c>
+      <c r="F199" s="2">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2">
+        <v>7</v>
+      </c>
+      <c r="H199" s="2">
+        <v>10</v>
+      </c>
+      <c r="I199" s="2">
+        <v>37</v>
+      </c>
+      <c r="J199" s="2">
+        <v>56</v>
+      </c>
+      <c r="K199" s="2">
+        <v>55.5</v>
+      </c>
+      <c r="L199" s="2">
+        <v>160</v>
+      </c>
+      <c r="M199" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B200" s="2">
+        <v>469</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E200" s="2">
+        <v>7</v>
+      </c>
+      <c r="F200" s="2">
+        <v>16</v>
+      </c>
+      <c r="G200" s="2">
+        <v>7</v>
+      </c>
+      <c r="H200" s="2">
+        <v>3</v>
+      </c>
+      <c r="I200" s="2">
+        <v>33</v>
+      </c>
+      <c r="J200" s="2">
+        <v>46</v>
+      </c>
+      <c r="K200" s="2">
+        <v>44.5</v>
+      </c>
+      <c r="L200" s="2">
+        <v>130</v>
+      </c>
+      <c r="M200" s="2">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B201" s="2">
+        <v>470</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E201" s="2">
+        <v>0</v>
+      </c>
+      <c r="F201" s="2">
+        <v>3</v>
+      </c>
+      <c r="G201" s="2">
+        <v>3</v>
+      </c>
+      <c r="H201" s="2">
+        <v>0</v>
+      </c>
+      <c r="I201" s="2">
+        <v>6</v>
+      </c>
+      <c r="J201" s="2">
+        <v>5</v>
+      </c>
+      <c r="K201" s="2">
+        <v>3</v>
+      </c>
+      <c r="L201" s="2">
+        <v>-150</v>
+      </c>
+      <c r="M201" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A202" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B202" s="2">
+        <v>471</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E202" s="2">
+        <v>10</v>
+      </c>
+      <c r="F202" s="2">
+        <v>14</v>
+      </c>
+      <c r="G202" s="2">
+        <v>6</v>
+      </c>
+      <c r="H202" s="2">
+        <v>13</v>
+      </c>
+      <c r="I202" s="2">
+        <v>43</v>
+      </c>
+      <c r="J202" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="K202" s="2">
+        <v>7</v>
+      </c>
+      <c r="L202" s="2">
+        <v>-340</v>
+      </c>
+      <c r="M202" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B203" s="2">
+        <v>472</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E203" s="2">
+        <v>6</v>
+      </c>
+      <c r="F203" s="2">
+        <v>3</v>
+      </c>
+      <c r="G203" s="2">
+        <v>0</v>
+      </c>
+      <c r="H203" s="2">
+        <v>7</v>
+      </c>
+      <c r="I203" s="2">
+        <v>16</v>
+      </c>
+      <c r="J203" s="2">
+        <v>49</v>
+      </c>
+      <c r="K203" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="L203" s="2">
+        <v>280</v>
+      </c>
+      <c r="M203" s="2">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B204" s="2">
+        <v>473</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E204" s="2">
+        <v>7</v>
+      </c>
+      <c r="F204" s="2">
+        <v>14</v>
+      </c>
+      <c r="G204" s="2">
+        <v>3</v>
+      </c>
+      <c r="H204" s="2">
+        <v>21</v>
+      </c>
+      <c r="I204" s="2">
+        <v>45</v>
+      </c>
+      <c r="J204" s="2">
+        <v>2</v>
+      </c>
+      <c r="K204" s="2">
+        <v>4</v>
+      </c>
+      <c r="L204" s="2">
+        <v>-200</v>
+      </c>
+      <c r="M204" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B205" s="2">
+        <v>474</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E205" s="2">
+        <v>7</v>
+      </c>
+      <c r="F205" s="2">
+        <v>3</v>
+      </c>
+      <c r="G205" s="2">
+        <v>7</v>
+      </c>
+      <c r="H205" s="2">
+        <v>3</v>
+      </c>
+      <c r="I205" s="2">
+        <v>20</v>
+      </c>
+      <c r="J205" s="2">
+        <v>54</v>
+      </c>
+      <c r="K205" s="2">
+        <v>51.5</v>
+      </c>
+      <c r="L205" s="2">
+        <v>175</v>
+      </c>
+      <c r="M205" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B206" s="2">
+        <v>477</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E206" s="2">
+        <v>7</v>
+      </c>
+      <c r="F206" s="2">
+        <v>17</v>
+      </c>
+      <c r="G206" s="2">
+        <v>3</v>
+      </c>
+      <c r="H206" s="2">
+        <v>0</v>
+      </c>
+      <c r="I206" s="2">
+        <v>27</v>
+      </c>
+      <c r="J206" s="2">
+        <v>51</v>
+      </c>
+      <c r="K206" s="2">
+        <v>51</v>
+      </c>
+      <c r="L206" s="2">
+        <v>100</v>
+      </c>
+      <c r="M206" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B207" s="2">
+        <v>478</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E207" s="2">
+        <v>0</v>
+      </c>
+      <c r="F207" s="2">
+        <v>7</v>
+      </c>
+      <c r="G207" s="2">
+        <v>10</v>
+      </c>
+      <c r="H207" s="2">
+        <v>7</v>
+      </c>
+      <c r="I207" s="2">
+        <v>24</v>
+      </c>
+      <c r="J207" s="2">
+        <v>7</v>
+      </c>
+      <c r="K207" s="2">
+        <v>1</v>
+      </c>
+      <c r="L207" s="2">
+        <v>-120</v>
+      </c>
+      <c r="M207" s="2">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B208" s="2">
+        <v>479</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E208" s="2">
+        <v>0</v>
+      </c>
+      <c r="F208" s="2">
+        <v>14</v>
+      </c>
+      <c r="G208" s="2">
+        <v>15</v>
+      </c>
+      <c r="H208" s="2">
+        <v>0</v>
+      </c>
+      <c r="I208" s="2">
+        <v>29</v>
+      </c>
+      <c r="J208" s="2">
+        <v>49</v>
+      </c>
+      <c r="K208" s="2">
+        <v>49</v>
+      </c>
+      <c r="L208" s="2">
+        <v>320</v>
+      </c>
+      <c r="M208" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="2">
+        <v>1025</v>
+      </c>
+      <c r="B209" s="2">
+        <v>480</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E209" s="2">
+        <v>9</v>
+      </c>
+      <c r="F209" s="2">
+        <v>7</v>
+      </c>
+      <c r="G209" s="2">
+        <v>20</v>
+      </c>
+      <c r="H209" s="2">
+        <v>3</v>
+      </c>
+      <c r="I209" s="2">
+        <v>39</v>
+      </c>
+      <c r="J209" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="K209" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="L209" s="2">
+        <v>-380</v>
+      </c>
+      <c r="M209" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="2">
+        <v>1026</v>
+      </c>
+      <c r="B210" s="2">
+        <v>475</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E210" s="2">
+        <v>0</v>
+      </c>
+      <c r="F210" s="2">
+        <v>3</v>
+      </c>
+      <c r="G210" s="2">
+        <v>0</v>
+      </c>
+      <c r="H210" s="2">
+        <v>7</v>
+      </c>
+      <c r="I210" s="2">
+        <v>10</v>
+      </c>
+      <c r="J210" s="2">
+        <v>47</v>
+      </c>
+      <c r="K210" s="2">
+        <v>44.5</v>
+      </c>
+      <c r="L210" s="2">
+        <v>240</v>
+      </c>
+      <c r="M210" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="2">
+        <v>1026</v>
+      </c>
+      <c r="B211" s="2">
+        <v>476</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E211" s="2">
+        <v>7</v>
+      </c>
+      <c r="F211" s="2">
+        <v>3</v>
+      </c>
+      <c r="G211" s="2">
+        <v>14</v>
+      </c>
+      <c r="H211" s="2">
+        <v>0</v>
+      </c>
+      <c r="I211" s="2">
+        <v>24</v>
+      </c>
+      <c r="J211" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="K211" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="L211" s="2">
+        <v>-280</v>
+      </c>
+      <c r="M211" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="225" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="226" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="227" ht="9" customHeight="1" x14ac:dyDescent="0.15"/>
